--- a/backend/data/results/nfl_season_results.xlsx
+++ b/backend/data/results/nfl_season_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7386,6 +7386,438 @@
         <v>10.5</v>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Tampa Bay Buccaneers</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Carolina Panthers</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E258" t="n">
+        <v>16</v>
+      </c>
+      <c r="F258" t="n">
+        <v>14</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>San Francisco 49ers</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Seattle Seahawks</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E259" t="n">
+        <v>3</v>
+      </c>
+      <c r="F259" t="n">
+        <v>13</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Jacksonville Jaguars</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Tennessee Titans</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="E260" t="n">
+        <v>41</v>
+      </c>
+      <c r="F260" t="n">
+        <v>7</v>
+      </c>
+      <c r="G260" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Houston Texans</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Indianapolis Colts</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E261" t="n">
+        <v>38</v>
+      </c>
+      <c r="F261" t="n">
+        <v>30</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Cincinnati Bengals</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Cleveland Browns</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E262" t="n">
+        <v>18</v>
+      </c>
+      <c r="F262" t="n">
+        <v>20</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>New York Giants</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>3</v>
+      </c>
+      <c r="E263" t="n">
+        <v>34</v>
+      </c>
+      <c r="F263" t="n">
+        <v>17</v>
+      </c>
+      <c r="G263" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Atlanta Falcons</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>New Orleans Saints</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E264" t="n">
+        <v>19</v>
+      </c>
+      <c r="F264" t="n">
+        <v>17</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Minnesota Vikings</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Green Bay Packers</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="E265" t="n">
+        <v>16</v>
+      </c>
+      <c r="F265" t="n">
+        <v>3</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Los Angeles Rams</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Arizona Cardinals</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="E266" t="n">
+        <v>37</v>
+      </c>
+      <c r="F266" t="n">
+        <v>20</v>
+      </c>
+      <c r="G266" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Chicago Bears</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Detroit Lions</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E267" t="n">
+        <v>16</v>
+      </c>
+      <c r="F267" t="n">
+        <v>19</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Philadelphia Eagles</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Washington Commanders</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E268" t="n">
+        <v>17</v>
+      </c>
+      <c r="F268" t="n">
+        <v>24</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Las Vegas Raiders</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Kansas City Chiefs</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E269" t="n">
+        <v>14</v>
+      </c>
+      <c r="F269" t="n">
+        <v>12</v>
+      </c>
+      <c r="G269" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Buffalo Bills</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>New York Jets</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="E270" t="n">
+        <v>35</v>
+      </c>
+      <c r="F270" t="n">
+        <v>8</v>
+      </c>
+      <c r="G270" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>New England Patriots</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Miami Dolphins</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="E271" t="n">
+        <v>38</v>
+      </c>
+      <c r="F271" t="n">
+        <v>10</v>
+      </c>
+      <c r="G271" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Denver Broncos</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Los Angeles Chargers</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="E272" t="n">
+        <v>19</v>
+      </c>
+      <c r="F272" t="n">
+        <v>3</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Pittsburgh Steelers</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Baltimore Ravens</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E273" t="n">
+        <v>26</v>
+      </c>
+      <c r="F273" t="n">
+        <v>24</v>
+      </c>
+      <c r="G273" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/results/nfl_season_results.xlsx
+++ b/backend/data/results/nfl_season_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7818,6 +7818,168 @@
         <v>6.5</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Carolina Panthers</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Los Angeles Rams</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>10</v>
+      </c>
+      <c r="E274" t="n">
+        <v>31</v>
+      </c>
+      <c r="F274" t="n">
+        <v>34</v>
+      </c>
+      <c r="G274" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Chicago Bears</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Green Bay Packers</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E275" t="n">
+        <v>31</v>
+      </c>
+      <c r="F275" t="n">
+        <v>27</v>
+      </c>
+      <c r="G275" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Jacksonville Jaguars</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Buffalo Bills</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E276" t="n">
+        <v>24</v>
+      </c>
+      <c r="F276" t="n">
+        <v>27</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Philadelphia Eagles</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>San Francisco 49ers</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E277" t="n">
+        <v>19</v>
+      </c>
+      <c r="F277" t="n">
+        <v>23</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>New England Patriots</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Los Angeles Chargers</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E278" t="n">
+        <v>16</v>
+      </c>
+      <c r="F278" t="n">
+        <v>3</v>
+      </c>
+      <c r="G278" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Pittsburgh Steelers</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Houston Texans</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>3</v>
+      </c>
+      <c r="E279" t="n">
+        <v>6</v>
+      </c>
+      <c r="F279" t="n">
+        <v>30</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
